--- a/4_geneset_interactors_proteomics/list2_interactors_oligodendrocites/lista_proteomica_geneset_input_file.xlsx
+++ b/4_geneset_interactors_proteomics/list2_interactors_oligodendrocites/lista_proteomica_geneset_input_file.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e771c42a765a3e1/Escritorio/TAF1_genetics/4_geneset_interactors_proteomics/list2_interactors_oligodendrocites/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CBM\Desktop\TAF1_genetics\4_geneset_interactors_proteomics\list2_interactors_oligodendrocites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{ECF5720B-272C-41B7-99F6-620434D32CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC7291EC-85B8-467C-B9C8-227632741BFE}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WT&gt;D38" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="169">
   <si>
     <t>Eif4g2</t>
   </si>
@@ -531,12 +530,15 @@
   </si>
   <si>
     <t>WT&gt;D38</t>
+  </si>
+  <si>
+    <t>all</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -853,19 +855,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>164</v>
       </c>
@@ -873,7 +875,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -881,7 +883,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -889,7 +891,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -897,7 +899,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -905,7 +907,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -913,7 +915,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -921,7 +923,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -929,7 +931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -937,7 +939,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -945,7 +947,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -953,7 +955,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -961,7 +963,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -969,7 +971,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -977,7 +979,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -985,7 +987,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -993,7 +995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1001,7 +1003,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1009,7 +1011,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1017,7 +1019,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1025,7 +1027,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1033,7 +1035,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1041,7 +1043,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1049,7 +1051,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1057,7 +1059,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1065,7 +1067,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1073,7 +1075,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1081,7 +1083,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1089,7 +1091,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1097,7 +1099,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1105,7 +1107,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1113,7 +1115,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1121,7 +1123,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1129,7 +1131,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1137,7 +1139,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1145,7 +1147,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1153,7 +1155,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1161,7 +1163,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1169,7 +1171,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1177,7 +1179,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1185,7 +1187,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1193,7 +1195,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1201,7 +1203,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1209,7 +1211,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1217,7 +1219,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1225,7 +1227,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1233,7 +1235,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1241,7 +1243,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1249,7 +1251,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1257,7 +1259,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -1265,7 +1267,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1273,7 +1275,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1281,7 +1283,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -1289,7 +1291,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -1297,7 +1299,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -1305,7 +1307,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -1313,7 +1315,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -1321,7 +1323,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -1329,7 +1331,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -1337,7 +1339,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -1345,7 +1347,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -1353,7 +1355,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -1361,7 +1363,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -1369,7 +1371,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -1377,7 +1379,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -1385,7 +1387,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -1393,7 +1395,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -1401,7 +1403,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -1409,7 +1411,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -1417,7 +1419,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -1425,7 +1427,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -1433,7 +1435,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -1441,7 +1443,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -1449,7 +1451,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -1471,19 +1473,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>164</v>
       </c>
@@ -1491,7 +1493,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -1499,7 +1501,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -1507,7 +1509,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1515,7 +1517,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -1523,7 +1525,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -1531,7 +1533,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -1539,7 +1541,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -1547,7 +1549,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -1561,19 +1563,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F383BF4-E901-4209-9DA2-E073B175ED39}">
-  <dimension ref="A1:B82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B82" sqref="A1:B82"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>166</v>
       </c>
@@ -1581,7 +1583,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -1589,7 +1591,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>166</v>
       </c>
@@ -1597,7 +1599,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -1605,7 +1607,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>166</v>
       </c>
@@ -1613,7 +1615,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -1621,7 +1623,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>166</v>
       </c>
@@ -1629,7 +1631,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -1637,7 +1639,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>167</v>
       </c>
@@ -1645,7 +1647,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>167</v>
       </c>
@@ -1653,7 +1655,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -1661,7 +1663,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>167</v>
       </c>
@@ -1669,7 +1671,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>167</v>
       </c>
@@ -1677,7 +1679,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>167</v>
       </c>
@@ -1685,7 +1687,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>167</v>
       </c>
@@ -1693,7 +1695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>167</v>
       </c>
@@ -1701,7 +1703,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -1709,7 +1711,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -1717,7 +1719,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -1725,7 +1727,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>167</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -1741,7 +1743,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>167</v>
       </c>
@@ -1749,7 +1751,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>167</v>
       </c>
@@ -1757,7 +1759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>167</v>
       </c>
@@ -1765,7 +1767,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -1773,7 +1775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>167</v>
       </c>
@@ -1781,7 +1783,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>167</v>
       </c>
@@ -1789,7 +1791,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>167</v>
       </c>
@@ -1797,7 +1799,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>167</v>
       </c>
@@ -1805,7 +1807,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>167</v>
       </c>
@@ -1813,7 +1815,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>167</v>
       </c>
@@ -1821,7 +1823,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>167</v>
       </c>
@@ -1829,7 +1831,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>167</v>
       </c>
@@ -1837,7 +1839,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -1845,7 +1847,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>167</v>
       </c>
@@ -1853,7 +1855,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>167</v>
       </c>
@@ -1861,7 +1863,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>167</v>
       </c>
@@ -1869,7 +1871,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>167</v>
       </c>
@@ -1877,7 +1879,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>167</v>
       </c>
@@ -1885,7 +1887,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>167</v>
       </c>
@@ -1893,7 +1895,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>167</v>
       </c>
@@ -1901,7 +1903,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -1909,7 +1911,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -1917,7 +1919,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -1925,7 +1927,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -1933,7 +1935,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>167</v>
       </c>
@@ -1941,7 +1943,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>167</v>
       </c>
@@ -1949,7 +1951,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>167</v>
       </c>
@@ -1957,7 +1959,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>167</v>
       </c>
@@ -1965,7 +1967,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>167</v>
       </c>
@@ -1973,7 +1975,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>167</v>
       </c>
@@ -1981,7 +1983,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>167</v>
       </c>
@@ -1989,7 +1991,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>167</v>
       </c>
@@ -1997,7 +1999,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>167</v>
       </c>
@@ -2005,7 +2007,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>167</v>
       </c>
@@ -2013,7 +2015,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>167</v>
       </c>
@@ -2021,7 +2023,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>167</v>
       </c>
@@ -2029,7 +2031,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>167</v>
       </c>
@@ -2037,7 +2039,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>167</v>
       </c>
@@ -2045,7 +2047,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>167</v>
       </c>
@@ -2053,7 +2055,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>167</v>
       </c>
@@ -2061,7 +2063,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>167</v>
       </c>
@@ -2069,7 +2071,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>167</v>
       </c>
@@ -2077,7 +2079,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>167</v>
       </c>
@@ -2085,7 +2087,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>167</v>
       </c>
@@ -2093,7 +2095,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>167</v>
       </c>
@@ -2101,7 +2103,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>167</v>
       </c>
@@ -2109,7 +2111,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>167</v>
       </c>
@@ -2117,7 +2119,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>167</v>
       </c>
@@ -2125,7 +2127,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>167</v>
       </c>
@@ -2133,7 +2135,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>167</v>
       </c>
@@ -2141,7 +2143,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>167</v>
       </c>
@@ -2149,7 +2151,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>167</v>
       </c>
@@ -2157,7 +2159,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>167</v>
       </c>
@@ -2165,7 +2167,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>167</v>
       </c>
@@ -2173,7 +2175,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>167</v>
       </c>
@@ -2181,7 +2183,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>167</v>
       </c>
@@ -2189,7 +2191,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>167</v>
       </c>
@@ -2197,7 +2199,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>167</v>
       </c>
@@ -2205,7 +2207,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -2213,7 +2215,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>167</v>
       </c>
@@ -2221,11 +2223,667 @@
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>167</v>
       </c>
       <c r="B82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>168</v>
+      </c>
+      <c r="B90" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>168</v>
+      </c>
+      <c r="B91" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>168</v>
+      </c>
+      <c r="B99" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>168</v>
+      </c>
+      <c r="B100" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>168</v>
+      </c>
+      <c r="B101" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>168</v>
+      </c>
+      <c r="B102" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>168</v>
+      </c>
+      <c r="B103" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>168</v>
+      </c>
+      <c r="B104" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>168</v>
+      </c>
+      <c r="B105" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>168</v>
+      </c>
+      <c r="B106" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>168</v>
+      </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>168</v>
+      </c>
+      <c r="B108" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>168</v>
+      </c>
+      <c r="B109" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>168</v>
+      </c>
+      <c r="B110" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>168</v>
+      </c>
+      <c r="B111" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>168</v>
+      </c>
+      <c r="B112" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>168</v>
+      </c>
+      <c r="B113" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>168</v>
+      </c>
+      <c r="B114" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>168</v>
+      </c>
+      <c r="B115" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>168</v>
+      </c>
+      <c r="B116" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>168</v>
+      </c>
+      <c r="B117" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>168</v>
+      </c>
+      <c r="B118" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>168</v>
+      </c>
+      <c r="B119" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>168</v>
+      </c>
+      <c r="B120" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>168</v>
+      </c>
+      <c r="B121" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>168</v>
+      </c>
+      <c r="B122" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>168</v>
+      </c>
+      <c r="B123" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>168</v>
+      </c>
+      <c r="B124" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>168</v>
+      </c>
+      <c r="B125" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>168</v>
+      </c>
+      <c r="B126" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>168</v>
+      </c>
+      <c r="B127" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>168</v>
+      </c>
+      <c r="B128" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>168</v>
+      </c>
+      <c r="B129" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>168</v>
+      </c>
+      <c r="B130" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>168</v>
+      </c>
+      <c r="B131" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>168</v>
+      </c>
+      <c r="B132" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>168</v>
+      </c>
+      <c r="B133" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>168</v>
+      </c>
+      <c r="B134" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>168</v>
+      </c>
+      <c r="B135" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>168</v>
+      </c>
+      <c r="B136" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>168</v>
+      </c>
+      <c r="B137" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>168</v>
+      </c>
+      <c r="B138" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>168</v>
+      </c>
+      <c r="B139" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>168</v>
+      </c>
+      <c r="B140" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>168</v>
+      </c>
+      <c r="B141" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>168</v>
+      </c>
+      <c r="B142" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>168</v>
+      </c>
+      <c r="B143" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>168</v>
+      </c>
+      <c r="B144" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>168</v>
+      </c>
+      <c r="B145" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>168</v>
+      </c>
+      <c r="B146" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>168</v>
+      </c>
+      <c r="B147" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>168</v>
+      </c>
+      <c r="B148" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>168</v>
+      </c>
+      <c r="B149" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>168</v>
+      </c>
+      <c r="B150" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>168</v>
+      </c>
+      <c r="B151" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>168</v>
+      </c>
+      <c r="B152" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>168</v>
+      </c>
+      <c r="B153" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>168</v>
+      </c>
+      <c r="B154" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>168</v>
+      </c>
+      <c r="B155" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>168</v>
+      </c>
+      <c r="B156" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>168</v>
+      </c>
+      <c r="B157" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>168</v>
+      </c>
+      <c r="B158" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>168</v>
+      </c>
+      <c r="B159" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>168</v>
+      </c>
+      <c r="B160" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>168</v>
+      </c>
+      <c r="B161" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164" t="s">
         <v>155</v>
       </c>
     </row>
